--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4257332.11205568</v>
+        <v>4250315.097163968</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>33.62002524689724</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -712,19 +712,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>74.53501544534188</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.9342137328509</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>92.39479380343629</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.6818289327824</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>51.18571673942439</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>68.14130809906142</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>141.0102149207198</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>178.925350145155</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113191</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.43169406268014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>112.4346037011843</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>116.6256434942821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.66487306809216</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701342</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X22" t="n">
-        <v>140.0424879565125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>48.24334582005326</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>174.2106622993762</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.69586997053497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
-        <v>115.8199705913326</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29.62324249224028</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>89.35037090514773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.562624396424664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>63.38726878549164</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>127.6176159584065</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,10 +4194,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>89.44924796239927</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F2" t="n">
         <v>548.527081850681</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.655019473651</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.592132130081</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.592132130081</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.126373869001</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.126373869001</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2476.356511874692</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>2476.356511874692</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>2326.239872462357</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>2191.96288889382</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2191.96288889382</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
         <v>498.8626623130036</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2554.714530492243</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2554.714530492243</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2554.714530492243</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2554.714530492243</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2554.714530492243</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2181.248772231163</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.7762810288177</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5196,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1477.268094737014</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1477.268094737014</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1477.268094737014</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1188.139455950572</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>933.4549677446852</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.217325002588</v>
+        <v>933.4549677446852</v>
       </c>
       <c r="X13" t="n">
-        <v>1096.217325002588</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="Y13" t="n">
-        <v>875.4247458590575</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5302,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188992</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188992</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>709.4512536188992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,58 +5734,58 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3778.208216256917</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4701.04881723263</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4477.263402022135</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4477.263402022135</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4477.263402022135</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>4187.846231985174</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>898.5039869983193</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>670.514436100302</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4018.114580657031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4018.114580657031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4743.864703730118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4743.864703730118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4489.180215524231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4199.763045487271</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4199.763045487271</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4199.763045487271</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6691,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>765.2096374174363</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>765.2096374174363</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>615.0929980051005</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>467.1799044227074</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>467.1799044227074</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>299.004582742528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>986.0022165609664</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>765.2096374174363</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,67 +7390,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.6944526764913</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>505.7582697485844</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617345004</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>856.3429175067311</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>856.3429175067311</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>584.6543273187488</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>584.6543273187488</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>234.411650950316</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.65987261462459</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>43.6598726146247</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>414.5002179180832</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>88.53265834111264</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>174.0883946354067</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>109.084011894755</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.1671071138451</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X22" t="n">
-        <v>85.66716743252468</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>149.67746416355</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.621317882561073</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.8887833815598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
-        <v>105.7275904670567</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>119.2905858752958</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>59.5634574623884</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.0220289556701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>162.3223866035455</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>90.96703739368824</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>162.6883953614287</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613223.9805588805</v>
+        <v>613223.9805588806</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>613223.9805588804</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
@@ -26325,37 +26325,37 @@
         <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="N2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="O2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="K2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="M2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762506.6664885321</v>
-      </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007401</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007413</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007525</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007514</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007489</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619832</v>
+        <v>-20228.28037619856</v>
       </c>
       <c r="C6" t="n">
         <v>569739.5988383462</v>
@@ -26530,40 +26530,40 @@
         <v>569739.5988383462</v>
       </c>
       <c r="E6" t="n">
-        <v>137442.5724069124</v>
+        <v>136467.9811471905</v>
       </c>
       <c r="F6" t="n">
-        <v>662602.6088838087</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="G6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240869</v>
       </c>
       <c r="H6" t="n">
-        <v>662602.6088838086</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="I6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240864</v>
       </c>
       <c r="J6" t="n">
-        <v>486179.3896912156</v>
+        <v>485204.7984314935</v>
       </c>
       <c r="K6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="L6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240868</v>
       </c>
       <c r="M6" t="n">
-        <v>527801.5936499711</v>
+        <v>526827.0023902492</v>
       </c>
       <c r="N6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="O6" t="n">
-        <v>662602.6088838079</v>
+        <v>661628.0176240868</v>
       </c>
       <c r="P6" t="n">
-        <v>662602.6088838085</v>
+        <v>661628.0176240865</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,28 +26743,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>373.2560204948142</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>176.6891520629474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.49974891371829</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>87.00133556471249</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>262.2882478172467</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>167.5561097232712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>235.0961575025534</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>338.73473764265</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>33.40549788825174</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>33.22018880486391</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35257,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>483.6693559063403</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>250.7532875461493</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>354.084249665091</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>366.1055152450481</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,16 +37633,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>747.6947913160961</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
